--- a/persons.xlsx
+++ b/persons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gokhanazizoglu/Desktop/Nesne Tabanlı Programlama/RandomPersonSelector/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gokhanazizoglu/Desktop/Repos/MobileRepos/RandomPersonSelector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC232C3-C2ED-4C43-9EDC-9120697843F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2940F68-F075-C747-B4E2-C791D86CC94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{7D5D5C97-1C15-C148-A025-2840E63F1D88}"/>
   </bookViews>
@@ -38,13 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Ad</t>
-  </si>
-  <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Soyad</t>
   </si>
   <si>
     <t>Gökhan</t>
@@ -54,6 +48,12 @@
   </si>
   <si>
     <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,24 +460,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
